--- a/input.xlsx
+++ b/input.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
